--- a/00. 준비자료/250626_일정표, 개요서, 주제가 등/250625_final_1조_일정표.xlsx
+++ b/00. 준비자료/250626_일정표, 개요서, 주제가 등/250625_final_1조_일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\00. Project\03_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\00. Project\03_FinalProject\00. 준비자료\250626_일정표, 개요서, 주제가 등\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8557A2-5261-47B1-B182-1ED8AFD7197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1559E0E5-762B-4450-8650-00B5672EDF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F90D5256-163C-44E0-BEF0-C060647FCC80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F90D5256-163C-44E0-BEF0-C060647FCC80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,6 +598,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -624,15 +633,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,10 +948,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EED6BB-8160-493F-96C1-6B0888A76B5D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,11 +966,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
@@ -981,282 +984,282 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="24"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="24"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="24"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="24"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="17"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
@@ -1271,11 +1274,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B18"/>
     <mergeCell ref="D31:D34"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="B2:D2"/>
@@ -1292,9 +1290,14 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>